--- a/REGULAR/MONTENEGRO, MARISSA.xlsx
+++ b/REGULAR/MONTENEGRO, MARISSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECDA9B2-B3F3-43E0-A573-58CC8FE4A5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0640A-7389-4F7A-A23D-9E48F72B9C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2772,9 +2772,9 @@
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A105" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A108" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2939,7 +2939,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>68.25</v>
+        <v>69.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2949,7 +2949,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.25</v>
+        <v>23.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5394,7 +5394,9 @@
       <c r="A117" s="40">
         <v>44958</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C117" s="13">
         <v>1.25</v>
       </c>
@@ -5405,23 +5407,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="39">
+        <v>1</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="49">
+        <v>44985</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>44986</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
